--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_20-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_20-07.xlsx
@@ -164,9 +164,6 @@
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -326,12 +323,6 @@
     <t>PIOMPRIDE 4/30 MG 30 TAB.</t>
   </si>
   <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -401,12 +392,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ريست سبورت </t>
   </si>
   <si>
@@ -429,15 +414,6 @@
   </si>
   <si>
     <t>17:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -1816,13 +1792,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1834,7 +1810,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1842,17 +1818,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1868,17 +1844,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1886,7 +1862,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1894,17 +1870,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1912,7 +1888,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1920,17 +1896,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1946,17 +1922,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1964,7 +1940,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1972,17 +1948,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1998,13 +1974,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2024,13 +2000,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2050,17 +2026,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2076,17 +2052,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2102,17 +2078,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>177</v>
+        <v>-25</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2120,7 +2096,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2128,13 +2104,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>-25</v>
+        <v>14.25</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2154,17 +2130,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>14.25</v>
+        <v>78</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2186,11 +2162,11 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2206,13 +2182,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>124</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2232,17 +2208,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>27.440000000000001</v>
+        <v>57</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2258,13 +2234,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>57</v>
+        <v>120.78</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2290,7 +2266,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>120.78</v>
+        <v>70</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2310,17 +2286,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2342,11 +2318,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2362,17 +2338,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2388,17 +2364,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2414,13 +2390,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2432,7 +2408,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2440,13 +2416,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2472,7 +2448,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2492,13 +2468,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2510,7 +2486,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2518,17 +2494,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2544,13 +2520,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2562,7 +2538,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2570,17 +2546,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2588,7 +2564,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2596,17 +2572,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2622,13 +2598,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2654,11 +2630,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>96</v>
+        <v>411</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2674,13 +2650,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2700,17 +2676,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2718,7 +2694,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2726,17 +2702,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2752,13 +2728,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2778,13 +2754,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2796,7 +2772,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2804,17 +2780,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2830,17 +2806,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>27</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2856,17 +2832,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>160.05000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2882,13 +2858,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2900,7 +2876,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2908,17 +2884,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2934,17 +2910,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>7</v>
+        <v>86.5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2952,7 +2928,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2960,13 +2936,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2978,7 +2954,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2986,17 +2962,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>86.5</v>
+        <v>62</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3004,7 +2980,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3018,11 +2994,11 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3030,7 +3006,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3038,13 +3014,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>62</v>
+        <v>30.5</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3056,7 +3032,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3064,17 +3040,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>282</v>
+        <v>31.5</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3090,17 +3066,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>30.5</v>
+        <v>60</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3116,17 +3092,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>31.5</v>
+        <v>123</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3134,7 +3110,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3142,13 +3118,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3160,7 +3136,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3174,7 +3150,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>123</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3186,7 +3162,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3200,11 +3176,11 @@
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>24</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3212,7 +3188,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3220,17 +3196,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>68.400000000000006</v>
+        <v>62</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3238,7 +3214,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3246,17 +3222,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>26.100000000000001</v>
+        <v>132</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3264,7 +3240,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3272,17 +3248,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3298,17 +3274,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>132</v>
+        <v>94.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3324,13 +3300,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3342,7 +3318,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3356,11 +3332,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>94.5</v>
+        <v>49</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3368,7 +3344,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3376,7 +3352,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3386,7 +3362,7 @@
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3394,7 +3370,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3408,7 +3384,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3420,7 +3396,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3428,17 +3404,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3446,7 +3422,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3454,17 +3430,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3472,7 +3448,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3480,13 +3456,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3498,7 +3474,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3506,181 +3482,51 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" ht="25.5" customHeight="1">
-      <c r="A100" s="6">
-        <v>97</v>
-      </c>
-      <c t="s" r="B100" s="7">
-        <v>136</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c t="s" r="H100" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" ht="26.25" customHeight="1">
+      <c r="K100" s="10">
+        <v>6644.5</v>
+      </c>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="11">
         <v>137</v>
       </c>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9">
-        <v>16</v>
-      </c>
-      <c r="M100" s="9"/>
-      <c t="s" r="N100" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" ht="24.75" customHeight="1">
-      <c r="A101" s="6">
-        <v>98</v>
-      </c>
-      <c t="s" r="B101" s="7">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c t="s" r="F101" s="12">
         <v>138</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c t="s" r="H101" s="8">
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c t="s" r="I101" s="14">
         <v>139</v>
       </c>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9">
-        <v>55</v>
-      </c>
-      <c r="M101" s="9"/>
-      <c t="s" r="N101" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="A102" s="6">
-        <v>99</v>
-      </c>
-      <c t="s" r="B102" s="7">
-        <v>140</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c t="s" r="H102" s="8">
-        <v>141</v>
-      </c>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9">
-        <v>15</v>
-      </c>
-      <c r="M102" s="9"/>
-      <c t="s" r="N102" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" ht="25.5" customHeight="1">
-      <c r="A103" s="6">
-        <v>100</v>
-      </c>
-      <c t="s" r="B103" s="7">
-        <v>142</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c t="s" r="H103" s="8">
-        <v>81</v>
-      </c>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9">
-        <v>24</v>
-      </c>
-      <c r="M103" s="9"/>
-      <c t="s" r="N103" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" ht="24.75" customHeight="1">
-      <c r="A104" s="6">
-        <v>101</v>
-      </c>
-      <c t="s" r="B104" s="7">
-        <v>143</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c t="s" r="H104" s="8">
-        <v>144</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9">
-        <v>30</v>
-      </c>
-      <c r="M104" s="9"/>
-      <c t="s" r="N104" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" ht="26.25" customHeight="1">
-      <c r="K105" s="10">
-        <v>6725.5</v>
-      </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="11">
-        <v>145</v>
-      </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c t="s" r="F106" s="12">
-        <v>146</v>
-      </c>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c t="s" r="I106" s="14">
-        <v>147</v>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="314">
+  <mergeCells count="299">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3976,25 +3822,10 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="L100:M100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="H102:K102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="H103:K103"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="H104:K104"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="I106:N106"/>
+    <mergeCell ref="K100:N100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:N101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
